--- a/reverse/滴水逆向20210616/复习堆栈图.xlsx
+++ b/reverse/滴水逆向20210616/复习堆栈图.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="44">
   <si>
     <t>EBP:0012FF80</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -108,6 +108,89 @@
   </si>
   <si>
     <t>EDI:0012FEE4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lea edi,dword ptr ss:[ebp-40]  取地址编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EDI:0012FEE4</t>
+  </si>
+  <si>
+    <t>mov ecx,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> mov eax,CCCCCCCC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rep stos dword ptr ss:[edi]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EDI:0012FEE4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCCCCCCC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EDI:0012FEE8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mov eax,dword ptr ss:[ebp+8]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBP:0012FF24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add eax,dword ptr ss:[bep+C]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pop edi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pop esi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pop ebx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EsP:0012FED8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>esp:0012FEE4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mov esp,ebp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ESP=EBP:0012FF24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pop ebp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RETN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ESP:0012FF2C</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -536,15 +619,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D3:R80"/>
+  <dimension ref="C3:R137"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G55" sqref="G55"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A107" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M136" sqref="M136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="3" max="3" width="13.625" customWidth="1"/>
     <col min="4" max="4" width="12.5" customWidth="1"/>
+    <col min="8" max="8" width="14.875" customWidth="1"/>
     <col min="14" max="14" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -849,178 +934,677 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="32" spans="4:18" x14ac:dyDescent="0.15">
+      <c r="N32" s="2"/>
+    </row>
+    <row r="33" spans="4:15" x14ac:dyDescent="0.15">
       <c r="D33" s="2"/>
-    </row>
-    <row r="34" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="I33" s="2"/>
+      <c r="N33" s="2"/>
+    </row>
+    <row r="34" spans="4:15" x14ac:dyDescent="0.15">
       <c r="D34" s="2"/>
-    </row>
-    <row r="35" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="I34" s="2"/>
+      <c r="N34" s="2"/>
+    </row>
+    <row r="35" spans="4:15" x14ac:dyDescent="0.15">
       <c r="D35" s="2"/>
-    </row>
-    <row r="36" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="I35" s="2"/>
+      <c r="N35" s="2"/>
+    </row>
+    <row r="36" spans="4:15" x14ac:dyDescent="0.15">
       <c r="D36" s="2"/>
-    </row>
-    <row r="37" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="I36" s="2"/>
+      <c r="N36" s="2"/>
+    </row>
+    <row r="37" spans="4:15" x14ac:dyDescent="0.15">
       <c r="D37" s="2"/>
-    </row>
-    <row r="38" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="I37" s="2"/>
+      <c r="N37" s="2"/>
+    </row>
+    <row r="38" spans="4:15" x14ac:dyDescent="0.15">
       <c r="D38" s="2"/>
-    </row>
-    <row r="39" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="I38" s="2"/>
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="4:15" x14ac:dyDescent="0.15">
       <c r="D39" s="2"/>
-    </row>
-    <row r="40" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="I39" s="2"/>
+      <c r="N39" s="2"/>
+    </row>
+    <row r="40" spans="4:15" x14ac:dyDescent="0.15">
       <c r="D40" s="2"/>
-    </row>
-    <row r="41" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="I40" s="2"/>
+      <c r="N40" s="2"/>
+    </row>
+    <row r="41" spans="4:15" x14ac:dyDescent="0.15">
       <c r="D41" s="2"/>
-    </row>
-    <row r="42" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="I41" s="2"/>
+      <c r="N41" s="2"/>
+    </row>
+    <row r="42" spans="4:15" x14ac:dyDescent="0.15">
       <c r="D42" s="2"/>
-    </row>
-    <row r="43" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="I42" s="2"/>
+      <c r="N42" s="2"/>
+    </row>
+    <row r="43" spans="4:15" x14ac:dyDescent="0.15">
       <c r="D43" s="2"/>
-    </row>
-    <row r="44" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="I43" s="2"/>
+      <c r="N43" s="2"/>
+    </row>
+    <row r="44" spans="4:15" x14ac:dyDescent="0.15">
       <c r="D44" s="2"/>
-    </row>
-    <row r="45" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="I44" s="2"/>
+      <c r="N44" s="2"/>
+    </row>
+    <row r="45" spans="4:15" x14ac:dyDescent="0.15">
       <c r="D45" s="2"/>
-    </row>
-    <row r="46" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="I45" s="2"/>
+      <c r="N45" s="2"/>
+    </row>
+    <row r="46" spans="4:15" x14ac:dyDescent="0.15">
       <c r="D46" s="2"/>
-    </row>
-    <row r="47" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="I46" s="2"/>
+      <c r="N46" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="O46" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="47" spans="4:15" x14ac:dyDescent="0.15">
       <c r="D47" s="7" t="s">
         <v>20</v>
       </c>
       <c r="E47" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="48" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="I47" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J47" t="s">
+        <v>37</v>
+      </c>
+      <c r="N47" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48" spans="4:15" x14ac:dyDescent="0.15">
       <c r="D48" s="7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="49" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="I48" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="N48" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="4:15" x14ac:dyDescent="0.15">
       <c r="D49" s="7" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="50" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="I49" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="N49" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="O49" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="50" spans="4:15" x14ac:dyDescent="0.15">
       <c r="D50" s="12"/>
       <c r="E50" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="51" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="I50" s="12"/>
+      <c r="N50" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="O50" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="4:15" x14ac:dyDescent="0.15">
       <c r="D51" s="12"/>
-    </row>
-    <row r="52" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="I51" s="12"/>
+      <c r="N51" s="12"/>
+    </row>
+    <row r="52" spans="4:15" x14ac:dyDescent="0.15">
       <c r="D52" s="12"/>
-    </row>
-    <row r="53" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="I52" s="12"/>
+      <c r="N52" s="12"/>
+    </row>
+    <row r="53" spans="4:15" x14ac:dyDescent="0.15">
       <c r="D53" s="12"/>
-    </row>
-    <row r="54" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="I53" s="12"/>
+      <c r="N53" s="12"/>
+    </row>
+    <row r="54" spans="4:15" x14ac:dyDescent="0.15">
       <c r="D54" s="12"/>
-    </row>
-    <row r="55" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="I54" s="12"/>
+      <c r="N54" s="12"/>
+    </row>
+    <row r="55" spans="4:15" x14ac:dyDescent="0.15">
       <c r="D55" s="12"/>
-    </row>
-    <row r="56" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="I55" s="12"/>
+      <c r="N55" s="12"/>
+    </row>
+    <row r="56" spans="4:15" x14ac:dyDescent="0.15">
       <c r="D56" s="12"/>
-    </row>
-    <row r="57" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="I56" s="12"/>
+      <c r="N56" s="12"/>
+    </row>
+    <row r="57" spans="4:15" x14ac:dyDescent="0.15">
       <c r="D57" s="12"/>
-    </row>
-    <row r="58" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="I57" s="12"/>
+      <c r="N57" s="12"/>
+      <c r="O57" s="1"/>
+    </row>
+    <row r="58" spans="4:15" x14ac:dyDescent="0.15">
       <c r="D58" s="12"/>
       <c r="E58" s="1"/>
-    </row>
-    <row r="59" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="I58" s="12"/>
+      <c r="J58" s="1"/>
+      <c r="N58" s="11"/>
+    </row>
+    <row r="59" spans="4:15" x14ac:dyDescent="0.15">
       <c r="D59" s="11"/>
-    </row>
-    <row r="60" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="I59" s="11"/>
+      <c r="N59" s="11"/>
+    </row>
+    <row r="60" spans="4:15" x14ac:dyDescent="0.15">
       <c r="D60" s="11"/>
-    </row>
-    <row r="61" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="I60" s="11"/>
+      <c r="N60" s="11"/>
+    </row>
+    <row r="61" spans="4:15" x14ac:dyDescent="0.15">
       <c r="D61" s="11"/>
-    </row>
-    <row r="62" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="I61" s="11"/>
+      <c r="N61" s="11"/>
+    </row>
+    <row r="62" spans="4:15" x14ac:dyDescent="0.15">
       <c r="D62" s="11"/>
-    </row>
-    <row r="63" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="I62" s="11"/>
+      <c r="N62" s="11"/>
+    </row>
+    <row r="63" spans="4:15" x14ac:dyDescent="0.15">
       <c r="D63" s="11"/>
-    </row>
-    <row r="64" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="I63" s="11"/>
+      <c r="N63" s="11"/>
+    </row>
+    <row r="64" spans="4:15" x14ac:dyDescent="0.15">
       <c r="D64" s="11"/>
-    </row>
-    <row r="65" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="I64" s="11"/>
+      <c r="N64" s="11"/>
+      <c r="O64" s="1"/>
+    </row>
+    <row r="65" spans="4:15" x14ac:dyDescent="0.15">
       <c r="D65" s="11"/>
       <c r="E65" s="1"/>
-    </row>
-    <row r="66" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="I65" s="11"/>
+      <c r="J65" s="1"/>
+      <c r="N65" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="O65" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" spans="4:15" x14ac:dyDescent="0.15">
       <c r="D66" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="I66" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N66" s="9">
+        <v>401171</v>
+      </c>
+      <c r="O66" s="1"/>
+    </row>
+    <row r="67" spans="4:15" x14ac:dyDescent="0.15">
       <c r="D67" s="9">
         <v>401171</v>
       </c>
       <c r="E67" s="1"/>
-    </row>
-    <row r="68" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="I67" s="9">
+        <v>401171</v>
+      </c>
+      <c r="J67" s="1"/>
+      <c r="N67" s="10">
+        <v>1</v>
+      </c>
+      <c r="O67" s="1"/>
+    </row>
+    <row r="68" spans="4:15" x14ac:dyDescent="0.15">
       <c r="D68" s="10">
         <v>1</v>
       </c>
       <c r="E68" s="1"/>
-    </row>
-    <row r="69" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="I68" s="10">
+        <v>1</v>
+      </c>
+      <c r="J68" s="1"/>
+      <c r="N68" s="10">
+        <v>2</v>
+      </c>
+      <c r="O68" s="1"/>
+    </row>
+    <row r="69" spans="4:15" x14ac:dyDescent="0.15">
       <c r="D69" s="10">
         <v>2</v>
       </c>
       <c r="E69" s="1"/>
-    </row>
-    <row r="70" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="I69" s="10">
+        <v>2</v>
+      </c>
+      <c r="J69" s="1"/>
+      <c r="N69" s="3"/>
+      <c r="O69" s="1"/>
+    </row>
+    <row r="70" spans="4:15" x14ac:dyDescent="0.15">
       <c r="D70" s="3"/>
       <c r="E70" s="1"/>
-    </row>
-    <row r="71" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="I70" s="3"/>
+      <c r="J70" s="1"/>
+      <c r="N70" s="3"/>
+      <c r="O70" s="1"/>
+    </row>
+    <row r="71" spans="4:15" x14ac:dyDescent="0.15">
       <c r="D71" s="3"/>
       <c r="E71" s="1"/>
-    </row>
-    <row r="72" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="I71" s="3"/>
+      <c r="J71" s="1"/>
+      <c r="N71" s="3"/>
+      <c r="O71" s="1"/>
+    </row>
+    <row r="72" spans="4:15" x14ac:dyDescent="0.15">
       <c r="D72" s="3"/>
       <c r="E72" s="1"/>
-    </row>
-    <row r="73" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="I72" s="3"/>
+      <c r="J72" s="1"/>
+      <c r="N72" s="3"/>
+      <c r="O72" s="1"/>
+    </row>
+    <row r="73" spans="4:15" x14ac:dyDescent="0.15">
       <c r="D73" s="3"/>
       <c r="E73" s="1"/>
-    </row>
-    <row r="74" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="I73" s="3"/>
+      <c r="J73" s="1"/>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="4:15" x14ac:dyDescent="0.15">
       <c r="D74" s="3"/>
-    </row>
-    <row r="75" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="I74" s="3"/>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="4:15" x14ac:dyDescent="0.15">
       <c r="D75" s="3"/>
-    </row>
-    <row r="76" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="I75" s="3"/>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="4:15" x14ac:dyDescent="0.15">
       <c r="D76" s="3"/>
-    </row>
-    <row r="79" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="I76" s="3"/>
+    </row>
+    <row r="79" spans="4:15" x14ac:dyDescent="0.15">
       <c r="D79" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="80" spans="4:5" ht="54" x14ac:dyDescent="0.15">
+      <c r="I79" t="s">
+        <v>23</v>
+      </c>
+      <c r="N79" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="80" spans="4:15" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D80" s="13" t="s">
         <v>17</v>
+      </c>
+      <c r="I80" t="s">
+        <v>24</v>
+      </c>
+      <c r="N80" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="N81" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="M86" s="2"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="C87" s="2"/>
+      <c r="H87" s="2"/>
+      <c r="M87" s="2"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="C88" s="2"/>
+      <c r="H88" s="2"/>
+      <c r="M88" s="2"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="C89" s="2"/>
+      <c r="H89" s="2"/>
+      <c r="M89" s="2"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="C90" s="2"/>
+      <c r="H90" s="2"/>
+      <c r="M90" s="2"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="C91" s="2"/>
+      <c r="H91" s="2"/>
+      <c r="M91" s="2"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="C92" s="2"/>
+      <c r="H92" s="2"/>
+      <c r="M92" s="2"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="C93" s="2"/>
+      <c r="H93" s="2"/>
+      <c r="M93" s="2"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="C94" s="2"/>
+      <c r="H94" s="2"/>
+      <c r="M94" s="2"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="C95" s="2"/>
+      <c r="H95" s="2"/>
+      <c r="M95" s="2"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="C96" s="2"/>
+      <c r="H96" s="2"/>
+      <c r="M96" s="2"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="C97" s="2"/>
+      <c r="H97" s="2"/>
+      <c r="M97" s="2"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="C98" s="2"/>
+      <c r="H98" s="2"/>
+      <c r="M98" s="2"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="C99" s="2"/>
+      <c r="H99" s="2"/>
+      <c r="M99" s="2"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="C100" s="2"/>
+      <c r="H100" s="2"/>
+      <c r="M100" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="C101" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H101" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="M101" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="C102" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H102" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M102" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="103" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="C103" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H103" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="M103" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="104" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="C104" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H104" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I104" t="s">
+        <v>38</v>
+      </c>
+      <c r="M104" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="105" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="C105" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H105" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="M105" s="12"/>
+    </row>
+    <row r="106" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="C106" s="12"/>
+      <c r="H106" s="12"/>
+      <c r="M106" s="12"/>
+    </row>
+    <row r="107" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="C107" s="12"/>
+      <c r="H107" s="12"/>
+      <c r="M107" s="12"/>
+    </row>
+    <row r="108" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="C108" s="12"/>
+      <c r="H108" s="12"/>
+      <c r="M108" s="12"/>
+    </row>
+    <row r="109" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="C109" s="12"/>
+      <c r="H109" s="12"/>
+      <c r="M109" s="12"/>
+    </row>
+    <row r="110" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="C110" s="12"/>
+      <c r="H110" s="12"/>
+      <c r="M110" s="12"/>
+    </row>
+    <row r="111" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="C111" s="12"/>
+      <c r="H111" s="12"/>
+      <c r="M111" s="12"/>
+    </row>
+    <row r="112" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="C112" s="12"/>
+      <c r="H112" s="12"/>
+      <c r="M112" s="11"/>
+    </row>
+    <row r="113" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="C113" s="11"/>
+      <c r="H113" s="11"/>
+      <c r="M113" s="11"/>
+    </row>
+    <row r="114" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="C114" s="11"/>
+      <c r="H114" s="11"/>
+      <c r="M114" s="11"/>
+    </row>
+    <row r="115" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="C115" s="11"/>
+      <c r="H115" s="11"/>
+      <c r="M115" s="11"/>
+    </row>
+    <row r="116" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="C116" s="11"/>
+      <c r="H116" s="11"/>
+      <c r="M116" s="11"/>
+    </row>
+    <row r="117" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="C117" s="11"/>
+      <c r="H117" s="11"/>
+      <c r="M117" s="11"/>
+    </row>
+    <row r="118" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="C118" s="11"/>
+      <c r="H118" s="11"/>
+      <c r="M118" s="11"/>
+    </row>
+    <row r="119" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="C119" s="11"/>
+      <c r="H119" s="11"/>
+      <c r="M119" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="120" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="C120" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D120" t="s">
+        <v>32</v>
+      </c>
+      <c r="H120" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I120" t="s">
+        <v>40</v>
+      </c>
+      <c r="M120" s="9">
+        <v>401171</v>
+      </c>
+    </row>
+    <row r="121" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="C121" s="9">
+        <v>401171</v>
+      </c>
+      <c r="H121" s="9">
+        <v>401171</v>
+      </c>
+      <c r="M121" s="10">
+        <v>1</v>
+      </c>
+      <c r="N121" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="122" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="C122" s="10">
+        <v>1</v>
+      </c>
+      <c r="H122" s="10">
+        <v>1</v>
+      </c>
+      <c r="M122" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="C123" s="10">
+        <v>2</v>
+      </c>
+      <c r="H123" s="10">
+        <v>2</v>
+      </c>
+      <c r="M123" s="3"/>
+    </row>
+    <row r="124" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="C124" s="3"/>
+      <c r="H124" s="3"/>
+      <c r="M124" s="3"/>
+    </row>
+    <row r="125" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="C125" s="3"/>
+      <c r="H125" s="3"/>
+      <c r="M125" s="3"/>
+    </row>
+    <row r="126" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="C126" s="3"/>
+      <c r="H126" s="3"/>
+      <c r="M126" s="3"/>
+    </row>
+    <row r="127" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="C127" s="3"/>
+      <c r="H127" s="3"/>
+      <c r="M127" s="3"/>
+    </row>
+    <row r="128" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="C128" s="3"/>
+      <c r="H128" s="3"/>
+      <c r="M128" s="3"/>
+    </row>
+    <row r="129" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="C129" s="3"/>
+      <c r="H129" s="3"/>
+      <c r="M129" s="3"/>
+    </row>
+    <row r="130" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="C130" s="3"/>
+      <c r="H130" s="3"/>
+    </row>
+    <row r="132" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="H132" t="s">
+        <v>34</v>
+      </c>
+      <c r="M132" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="133" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="C133" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="134" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="H134" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="135" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="C135" t="s">
+        <v>33</v>
+      </c>
+      <c r="H135" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="136" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="H136" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="137" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="H137" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
